--- a/docs/Serialisation Structure.xlsx
+++ b/docs/Serialisation Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Dev\Ross Robotics\Software\PicoDev\external\FlashKV\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB39F939-8923-42AD-9EAD-2B36752058A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4382212E-084E-4753-82D8-D2441013C3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30104285-2436-4F78-B3EE-703ACA2696BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>4b</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>First Key Value Pair</t>
+  </si>
+  <si>
+    <t>Memory Address</t>
+  </si>
+  <si>
+    <t>Meaning</t>
   </si>
 </sst>
 </file>
@@ -280,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -300,12 +306,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,34 +333,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617DA58F-5CF0-48AB-9A61-4DFB36BABCDC}">
-  <dimension ref="B1:AL7"/>
+  <dimension ref="B1:AN8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,384 +682,403 @@
     <col min="1" max="16384" width="5.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+    <row r="1" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="7"/>
+      <c r="E2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="19" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="19" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="21"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="12"/>
     </row>
-    <row r="3" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="16" t="s">
+    <row r="3" spans="2:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="7"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="19" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="17" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="19" t="s">
+      <c r="Q3" s="17"/>
+      <c r="R3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="16" t="s">
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="17"/>
-      <c r="W3" s="19" t="s">
+      <c r="X3" s="17"/>
+      <c r="Y3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="17" t="s">
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="19" t="s">
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="21"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="12"/>
     </row>
-    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="C4" s="12">
+    <row r="4" spans="2:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="20">
+        <v>1</v>
+      </c>
+      <c r="G4" s="20">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="K4" s="8">
+        <v>6</v>
+      </c>
+      <c r="L4" s="20">
+        <v>7</v>
+      </c>
+      <c r="M4" s="20">
+        <v>8</v>
+      </c>
+      <c r="N4" s="20">
+        <v>9</v>
+      </c>
+      <c r="O4" s="9">
+        <v>10</v>
+      </c>
+      <c r="P4" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>12</v>
+      </c>
+      <c r="R4" s="8">
+        <v>13</v>
+      </c>
+      <c r="S4" s="20">
+        <v>14</v>
+      </c>
+      <c r="T4" s="20">
+        <v>15</v>
+      </c>
+      <c r="U4" s="20">
+        <v>16</v>
+      </c>
+      <c r="V4" s="9">
+        <v>17</v>
+      </c>
+      <c r="W4" s="2">
+        <v>18</v>
+      </c>
+      <c r="X4" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="20">
+        <v>21</v>
+      </c>
+      <c r="AA4" s="20">
+        <v>22</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>23</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>24</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>25</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>26</v>
+      </c>
+      <c r="AF4" s="20">
+        <v>27</v>
+      </c>
+      <c r="AG4" s="20">
+        <v>28</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="21">
         <v>46</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="7">
+      <c r="G5" s="22">
         <v>56</v>
       </c>
-      <c r="F4" s="13">
+      <c r="H5" s="23">
         <v>53</v>
       </c>
-      <c r="G4" s="12">
+      <c r="I5" s="22">
         <v>5</v>
       </c>
-      <c r="H4" s="7">
+      <c r="J5" s="22">
         <v>0</v>
       </c>
-      <c r="I4" s="12">
+      <c r="K5" s="21">
         <v>62</v>
       </c>
-      <c r="J4" s="7">
+      <c r="L5" s="22">
         <v>61</v>
       </c>
-      <c r="K4" s="7">
+      <c r="M5" s="22">
         <v>73</v>
       </c>
-      <c r="L4" s="7">
+      <c r="N5" s="22">
         <v>65</v>
       </c>
-      <c r="M4" s="13">
+      <c r="O5" s="23">
         <v>64</v>
       </c>
-      <c r="N4" s="7">
+      <c r="P5" s="22">
         <v>5</v>
       </c>
-      <c r="O4" s="7">
+      <c r="Q5" s="22">
         <v>0</v>
       </c>
-      <c r="P4" s="12">
+      <c r="R5" s="21">
         <v>11</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="S5" s="22">
         <v>12</v>
       </c>
-      <c r="R4" s="7">
+      <c r="T5" s="22">
         <v>13</v>
       </c>
-      <c r="S4" s="7">
+      <c r="U5" s="22">
         <v>14</v>
       </c>
-      <c r="T4" s="13">
+      <c r="V5" s="23">
         <v>15</v>
       </c>
-      <c r="U4" s="12">
+      <c r="W5" s="22">
         <v>4</v>
       </c>
-      <c r="V4" s="7">
+      <c r="X5" s="22">
         <v>0</v>
       </c>
-      <c r="W4" s="12">
+      <c r="Y5" s="21">
         <v>74</v>
       </c>
-      <c r="X4" s="7">
+      <c r="Z5" s="22">
         <v>65</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="AA5" s="22">
         <v>73</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="AB5" s="23">
         <v>74</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AC5" s="22">
         <v>4</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AD5" s="22">
         <v>0</v>
       </c>
-      <c r="AC4" s="12">
+      <c r="AE5" s="21">
         <v>1</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AF5" s="22">
         <v>2</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AG5" s="22">
         <v>3</v>
       </c>
-      <c r="AF4" s="13">
+      <c r="AH5" s="23">
         <v>4</v>
       </c>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
     </row>
-    <row r="5" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
+    <row r="6" spans="2:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="14">
+      <c r="I6" s="19">
         <v>5</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="4" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="15">
+      <c r="P6" s="19">
         <v>5</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="4" t="s">
+      <c r="Q6" s="19"/>
+      <c r="R6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="T6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="U6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="V6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="14">
+      <c r="W6" s="19">
         <v>4</v>
       </c>
-      <c r="V5" s="15"/>
-      <c r="W5" s="4" t="s">
+      <c r="X6" s="19"/>
+      <c r="Y6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="Z6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="AA6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="AB6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="15">
+      <c r="AC6" s="19">
         <v>4</v>
       </c>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="4" t="s">
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AF6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AG6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AH6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2">
-        <v>6</v>
-      </c>
-      <c r="J7" s="2">
-        <v>7</v>
-      </c>
-      <c r="K7" s="2">
-        <v>8</v>
-      </c>
-      <c r="L7" s="2">
-        <v>9</v>
-      </c>
-      <c r="M7" s="2">
-        <v>10</v>
-      </c>
-      <c r="N7" s="2">
-        <v>11</v>
-      </c>
-      <c r="O7" s="2">
-        <v>12</v>
-      </c>
-      <c r="P7" s="2">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>14</v>
-      </c>
-      <c r="R7" s="2">
-        <v>15</v>
-      </c>
-      <c r="S7" s="2">
-        <v>16</v>
-      </c>
-      <c r="T7" s="2">
-        <v>17</v>
-      </c>
-      <c r="U7" s="2">
-        <v>18</v>
-      </c>
-      <c r="V7" s="2">
-        <v>19</v>
-      </c>
-      <c r="W7" s="2">
-        <v>20</v>
-      </c>
-      <c r="X7" s="2">
-        <v>21</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>22</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>23</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>24</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>25</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>26</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>27</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>28</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>29</v>
-      </c>
-    </row>
+    <row r="8" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="U2:AF2"/>
-    <mergeCell ref="C2:F3"/>
-    <mergeCell ref="G2:T2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="W3:Z3"/>
+  <mergeCells count="18">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="W2:AH2"/>
+    <mergeCell ref="E2:H3"/>
+    <mergeCell ref="I2:V2"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AC3:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
